--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Atishay Ltd/Pruned_Excel/Pruned_Balance-sheet_combined.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Atishay Ltd/Pruned_Excel/Pruned_Balance-sheet_combined.xlsx
@@ -636,7 +636,7 @@
         <v>0.08</v>
       </c>
       <c r="I2">
-        <v>0.3789999999999999</v>
+        <v>0.38</v>
       </c>
       <c r="J2">
         <v>0.1</v>
@@ -660,25 +660,25 @@
         <v>1.46</v>
       </c>
       <c r="Q2">
-        <v>1.5275</v>
+        <v>1.53</v>
       </c>
       <c r="R2">
-        <v>14.21125</v>
+        <v>14.21</v>
       </c>
       <c r="S2">
         <v>1.46</v>
       </c>
       <c r="T2">
-        <v>1.384545454545455</v>
+        <v>1.38</v>
       </c>
       <c r="U2">
-        <v>2.3425</v>
+        <v>2.34</v>
       </c>
       <c r="V2">
         <v>3.1</v>
       </c>
       <c r="W2">
-        <v>0.3111111111111111</v>
+        <v>0.31</v>
       </c>
       <c r="X2">
         <v>0.47</v>
@@ -702,7 +702,7 @@
         <v>0.21</v>
       </c>
       <c r="AE2">
-        <v>7.624999999999999</v>
+        <v>7.62</v>
       </c>
     </row>
     <row r="3" spans="1:31">
@@ -755,10 +755,10 @@
         <v>1.5</v>
       </c>
       <c r="Q3">
-        <v>1.5275</v>
+        <v>1.53</v>
       </c>
       <c r="R3">
-        <v>14.21125</v>
+        <v>14.21</v>
       </c>
       <c r="S3">
         <v>1.5</v>
@@ -767,13 +767,13 @@
         <v>2.86</v>
       </c>
       <c r="U3">
-        <v>2.3425</v>
+        <v>2.34</v>
       </c>
       <c r="V3">
         <v>6.99</v>
       </c>
       <c r="W3">
-        <v>0.3111111111111111</v>
+        <v>0.31</v>
       </c>
       <c r="X3">
         <v>0.29</v>
@@ -797,7 +797,7 @@
         <v>1.02</v>
       </c>
       <c r="AE3">
-        <v>7.624999999999999</v>
+        <v>7.62</v>
       </c>
     </row>
     <row r="4" spans="1:31">
@@ -850,10 +850,10 @@
         <v>5.25</v>
       </c>
       <c r="Q4">
-        <v>1.5275</v>
+        <v>1.53</v>
       </c>
       <c r="R4">
-        <v>14.21125</v>
+        <v>14.21</v>
       </c>
       <c r="S4">
         <v>5.25</v>
@@ -862,13 +862,13 @@
         <v>3.25</v>
       </c>
       <c r="U4">
-        <v>2.3425</v>
+        <v>2.34</v>
       </c>
       <c r="V4">
         <v>11.63</v>
       </c>
       <c r="W4">
-        <v>0.3111111111111111</v>
+        <v>0.31</v>
       </c>
       <c r="X4">
         <v>0.98</v>
@@ -892,7 +892,7 @@
         <v>3.01</v>
       </c>
       <c r="AE4">
-        <v>7.624999999999999</v>
+        <v>7.62</v>
       </c>
     </row>
     <row r="5" spans="1:31">
@@ -945,10 +945,10 @@
         <v>5.03</v>
       </c>
       <c r="Q5">
-        <v>1.5275</v>
+        <v>1.53</v>
       </c>
       <c r="R5">
-        <v>14.21125</v>
+        <v>14.21</v>
       </c>
       <c r="S5">
         <v>5.03</v>
@@ -957,13 +957,13 @@
         <v>3.06</v>
       </c>
       <c r="U5">
-        <v>2.3425</v>
+        <v>2.34</v>
       </c>
       <c r="V5">
         <v>12.32</v>
       </c>
       <c r="W5">
-        <v>0.3111111111111111</v>
+        <v>0.31</v>
       </c>
       <c r="X5">
         <v>3.93</v>
@@ -1040,10 +1040,10 @@
         <v>3.05</v>
       </c>
       <c r="Q6">
-        <v>1.5275</v>
+        <v>1.53</v>
       </c>
       <c r="R6">
-        <v>14.21125</v>
+        <v>14.21</v>
       </c>
       <c r="S6">
         <v>7.39</v>
@@ -1052,13 +1052,13 @@
         <v>2.65</v>
       </c>
       <c r="U6">
-        <v>2.3425</v>
+        <v>2.34</v>
       </c>
       <c r="V6">
         <v>14.87</v>
       </c>
       <c r="W6">
-        <v>0.3111111111111111</v>
+        <v>0.31</v>
       </c>
       <c r="X6">
         <v>4.38</v>
@@ -1135,10 +1135,10 @@
         <v>2.54</v>
       </c>
       <c r="Q7">
-        <v>1.5275</v>
+        <v>1.53</v>
       </c>
       <c r="R7">
-        <v>14.21125</v>
+        <v>14.21</v>
       </c>
       <c r="S7">
         <v>8.210000000000001</v>
@@ -1147,13 +1147,13 @@
         <v>1.76</v>
       </c>
       <c r="U7">
-        <v>2.3425</v>
+        <v>2.34</v>
       </c>
       <c r="V7">
         <v>14.49</v>
       </c>
       <c r="W7">
-        <v>0.3111111111111111</v>
+        <v>0.31</v>
       </c>
       <c r="X7">
         <v>1.82</v>
@@ -1230,10 +1230,10 @@
         <v>4.89</v>
       </c>
       <c r="Q8">
-        <v>1.5275</v>
+        <v>1.53</v>
       </c>
       <c r="R8">
-        <v>14.21125</v>
+        <v>14.21</v>
       </c>
       <c r="S8">
         <v>19.01</v>
@@ -1242,7 +1242,7 @@
         <v>1.34</v>
       </c>
       <c r="U8">
-        <v>2.3425</v>
+        <v>2.34</v>
       </c>
       <c r="V8">
         <v>24.21</v>
@@ -1301,7 +1301,7 @@
         <v>0.3</v>
       </c>
       <c r="I9">
-        <v>0.3789999999999999</v>
+        <v>0.38</v>
       </c>
       <c r="J9">
         <v>3.64</v>
@@ -1334,7 +1334,7 @@
         <v>24.39</v>
       </c>
       <c r="T9">
-        <v>1.384545454545455</v>
+        <v>1.38</v>
       </c>
       <c r="U9">
         <v>1.66</v>
@@ -1352,7 +1352,7 @@
         <v>2.29</v>
       </c>
       <c r="Z9">
-        <v>0.4524999999999999</v>
+        <v>0.45</v>
       </c>
       <c r="AA9">
         <v>0.6899999999999999</v>
@@ -1364,7 +1364,7 @@
         <v>32.08</v>
       </c>
       <c r="AD9">
-        <v>1.876666666666667</v>
+        <v>1.88</v>
       </c>
       <c r="AE9">
         <v>8.49</v>
@@ -1396,7 +1396,7 @@
         <v>0.34</v>
       </c>
       <c r="I10">
-        <v>0.3789999999999999</v>
+        <v>0.38</v>
       </c>
       <c r="J10">
         <v>2.82</v>
@@ -1429,7 +1429,7 @@
         <v>24.96</v>
       </c>
       <c r="T10">
-        <v>1.384545454545455</v>
+        <v>1.38</v>
       </c>
       <c r="U10">
         <v>1.17</v>
@@ -1447,7 +1447,7 @@
         <v>1.84</v>
       </c>
       <c r="Z10">
-        <v>0.4524999999999999</v>
+        <v>0.45</v>
       </c>
       <c r="AA10">
         <v>1.8</v>
@@ -1459,7 +1459,7 @@
         <v>35.21</v>
       </c>
       <c r="AD10">
-        <v>1.876666666666667</v>
+        <v>1.88</v>
       </c>
       <c r="AE10">
         <v>8.49</v>
@@ -1491,7 +1491,7 @@
         <v>0.52</v>
       </c>
       <c r="I11">
-        <v>0.3789999999999999</v>
+        <v>0.38</v>
       </c>
       <c r="J11">
         <v>2.09</v>
@@ -1524,7 +1524,7 @@
         <v>25.54</v>
       </c>
       <c r="T11">
-        <v>1.384545454545455</v>
+        <v>1.38</v>
       </c>
       <c r="U11">
         <v>0.82</v>
@@ -1542,7 +1542,7 @@
         <v>2.9</v>
       </c>
       <c r="Z11">
-        <v>0.4524999999999999</v>
+        <v>0.45</v>
       </c>
       <c r="AA11">
         <v>2.28</v>
@@ -1554,7 +1554,7 @@
         <v>40.57</v>
       </c>
       <c r="AD11">
-        <v>1.876666666666667</v>
+        <v>1.88</v>
       </c>
       <c r="AE11">
         <v>8.49</v>
@@ -1583,7 +1583,7 @@
         <v>1.07</v>
       </c>
       <c r="H12">
-        <v>0.2433333333333333</v>
+        <v>0.24</v>
       </c>
       <c r="I12">
         <v>0.01</v>
@@ -1649,7 +1649,7 @@
         <v>42.59</v>
       </c>
       <c r="AD12">
-        <v>1.876666666666667</v>
+        <v>1.88</v>
       </c>
       <c r="AE12">
         <v>8.49</v>
@@ -1678,7 +1678,7 @@
         <v>0.1</v>
       </c>
       <c r="H13">
-        <v>0.2433333333333333</v>
+        <v>0.24</v>
       </c>
       <c r="I13">
         <v>0.01</v>
@@ -1744,7 +1744,7 @@
         <v>40.22</v>
       </c>
       <c r="AD13">
-        <v>1.876666666666667</v>
+        <v>1.88</v>
       </c>
       <c r="AE13">
         <v>8.49</v>
@@ -1773,7 +1773,7 @@
         <v>0.23</v>
       </c>
       <c r="H14">
-        <v>0.2433333333333333</v>
+        <v>0.24</v>
       </c>
       <c r="I14">
         <v>0.26</v>
@@ -1839,7 +1839,7 @@
         <v>42.85</v>
       </c>
       <c r="AD14">
-        <v>1.876666666666667</v>
+        <v>1.88</v>
       </c>
       <c r="AE14">
         <v>8.49</v>
@@ -1871,7 +1871,7 @@
         <v>0.06</v>
       </c>
       <c r="I15">
-        <v>0.3789999999999999</v>
+        <v>0.38</v>
       </c>
       <c r="J15">
         <v>0.23</v>
